--- a/backups/2025-05/vocab_20250526.xlsx
+++ b/backups/2025-05/vocab_20250526.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Day 01</t>
+          <t>Day 01(9)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Day02</t>
+          <t>Day02(8)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Day03</t>
+          <t>Day03(17)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Day04</t>
+          <t>Day04(9)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Day05</t>
+          <t>Day05(9)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Day06</t>
+          <t>Day06(7)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Day07</t>
+          <t>Day07(9)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Day08</t>
+          <t>Day08(9)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Day09</t>
+          <t>Day09(18)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Day10</t>
+          <t>Day10(6)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Day11</t>
+          <t>Day11(10)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Day12</t>
+          <t>Day12(8)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Day13</t>
+          <t>Day13(9)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Day14</t>
+          <t>Day14(9)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Day15</t>
+          <t>Day15(14)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3780,17 +3780,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>make the best of one's way</t>
+          <t>fall in love with</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>前往</t>
+          <t>爱上</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3802,17 +3802,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>except for</t>
+          <t>keep company with sb.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>除了</t>
+          <t>陪伴某人</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3824,17 +3824,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>that is to say</t>
+          <t>become aware of</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>那就是说、换言之</t>
+          <t>发觉、知道</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3846,17 +3846,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>hear of</t>
+          <t>on the occasion of</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>听说</t>
+          <t>在（重要事件）之际</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3868,17 +3868,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>throw oneself into</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>投身于</t>
+          <t>将...收起、把…放回原处</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3890,17 +3890,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>concern oneself about</t>
+          <t>set sth aside</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>担心</t>
+          <t>把...放到一边（或搁到一边）</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3912,17 +3912,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>be otherwise engaged</t>
+          <t>carry out</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>另外有约、另外有事</t>
+          <t>履行、执行、落实</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3934,17 +3934,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>see for oneself</t>
+          <t>stand in sb's way</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>亲自去看</t>
+          <t>阻止某人</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day16(8)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3956,17 +3956,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>impress sth upon sb</t>
+          <t>glance at</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>强调</t>
+          <t>浏览、粗略地看</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3978,17 +3978,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>get hold of</t>
+          <t>be lost in sth</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>得到</t>
+          <t>沉浸于、全神贯注</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Day45</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4000,17 +4000,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>select sth from sth</t>
+          <t>return to sth</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>从...中选择、从...挑选</t>
+          <t>再讨论、重新处理</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4022,17 +4022,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>lie low</t>
+          <t>instruct sb to do</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>躲藏、不露面</t>
+          <t>命令某人做某事、指示某人做某事</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4044,17 +4044,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>be in the habit of doing sth</t>
+          <t>communicate sth to sb</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>有做某事的习惯</t>
+          <t>与某人通、与某人交流信息</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4066,17 +4066,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>bring sth round</t>
+          <t>come into</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>把...带过来</t>
+          <t>继承（遗产）</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4088,17 +4088,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>suspect sb of doing sth</t>
+          <t>address sth to sb</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>怀疑某人做某事</t>
+          <t>向某人提出...</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4110,17 +4110,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>at an end</t>
+          <t>be forbidden to do</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>结束</t>
+          <t>被禁止做某事</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4132,17 +4132,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>rely on</t>
+          <t>make an inquiry</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>依赖</t>
+          <t>调查、打听</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Day46</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4154,17 +4154,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>in short</t>
+          <t>a sum of money</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>简而言之、总之</t>
+          <t>一笔銭</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4176,17 +4176,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>press sb for sth</t>
+          <t>take up</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>极力劝说、催促某人某物</t>
+          <t>接受（建议或能得到的东西）</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4198,17 +4198,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>hold on to</t>
+          <t>long for sth</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>守住、保住</t>
+          <t>渴望...</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4220,17 +4220,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>under one's breath</t>
+          <t>have knowledge of</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>低声地、小声地</t>
+          <t>知道、了解</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4242,17 +4242,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>catch my attention</t>
+          <t>be obliged to sb</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>吸引我的注意</t>
+          <t>感激某人</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Day47</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4264,17 +4264,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>rest on sth</t>
+          <t>come in</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>（目光）落在...上</t>
+          <t>有供应、可得到</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day17(15)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4286,17 +4286,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>pull sth back</t>
+          <t>make compensation</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>拉回、缩回</t>
+          <t>补偿</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4308,17 +4308,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>break off</t>
+          <t>die away</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>停顿、中断</t>
+          <t>（声音）慢慢变弱、渐渐消失</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4330,17 +4330,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>at rest</t>
+          <t>regard...as</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>安心</t>
+          <t>把...看作</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4352,17 +4352,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>a degree of...</t>
+          <t>take on sth</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>程度的...</t>
+          <t>承担</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4374,17 +4374,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>be on friendly terms with sb</t>
+          <t>take leave of sb</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>与某人关系友好</t>
+          <t>向某人告别</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Day48</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4396,17 +4396,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>drop on one's knees</t>
+          <t>a touch of</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>跪下</t>
+          <t>一点、少许</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4418,17 +4418,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>press one's hand</t>
+          <t>in the meanwhile</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>紧握某人的手</t>
+          <t>在此期间</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day18(7)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4440,17 +4440,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>in the hope that</t>
+          <t>take...to be sth</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>抱着...的希望</t>
+          <t>认为、把…看作</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4462,17 +4462,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>bend over</t>
+          <t>be parted from</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>俯身</t>
+          <t>和...分离</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4484,17 +4484,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>cut sb off from sth</t>
+          <t>take a turn</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>使...与外界隔绝</t>
+          <t>转一圈</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4506,17 +4506,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>look upon sb</t>
+          <t>for some reason or other</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>（以某种方式）看（对）待某人</t>
+          <t>由于某种原因</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4528,17 +4528,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>promise to be</t>
+          <t>put out</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>预计会、预示会</t>
+          <t>熄灭</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4550,17 +4550,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>send for sb</t>
+          <t>pay one's visit to sb</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>请某人来帮忙</t>
+          <t>拜访某人</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Day49</t>
+          <t>Day19(9)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4572,20 +4572,5410 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>fall short of</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>达不到</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Day19(9)</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>out of place</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>不得体</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Day19(9)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>on account of</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>由于，因为</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Day19(9)</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>take leave of...</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>向…告别</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>at  (one's）ease</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>无拘无束、自由自在</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>occur to sb.</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>（主意或想法突然）浮现于脑中</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>be ashamed of...</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>对...感到羞耻、对...感到羞愧</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>break out</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>突然爆发</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Day20(5)</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>to tell the truth</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>老实说、说实话</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>at length</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>终于</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>rub off</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>使...磨擦掉</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>make a deep impression on sb</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>给某人留下了深刻的印象</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>address oneself to...</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>着手….、忙于...、投入...</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>不过、仅仅</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>throw up</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>放弃</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>fall back</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>后退</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Day21(8)</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>but for</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>倘若没有、要不是</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>once for all</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>仅此一次</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>be in good hands</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>正在妥善处理中</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>make an example of</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>用某人来杀一儆百</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>slip through sb's fingers</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>（机会或某人）被错过</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>not by any means</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>一点也不、绝不</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>paint sth over</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>用新的颜料覆盖...的画面（表面）</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>at sb's expense</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>由某人付钱、由某人负担费用</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>and so forth</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>等等</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>give sb credit for</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>为...而称赞某人</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Day22(10)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>fall back</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>（因惊奇、恐惧等）后退、退却</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>take a fancy to sb / sth</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>爱上、喜欢上（常指没有明显原因）</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>at all events</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>不管是哪种情况、无论如何</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>come out of</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>从（坏的情况中）走出</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>provide for sb</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>供养、抚养</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>to the last degree</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>极度地、非常地</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>inability to do</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>无能做...、不能做...</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>lay stress on</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>强调、把重点放在...上</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>at a loss</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>不知所措、困惑</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Day23(9)</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>at heart</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>本质上、实际上</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>be devoted to sb</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>深愛看某人</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>直到</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>come out</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>显露</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>take advantage of sb</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>（不公正地）利用某人</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>in one's presence</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>在...面前、有...在场</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>strike in</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>插嘴</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>break sth off</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>（突然）终止、結束</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>piece sth out</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>把...串连起来</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>come upon sb</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>（某种感觉）向某人袭来</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Day24(10)</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>buy up</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>大量买进、全部买下</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>on one's own account</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>靠自己、为自己</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>in keep with</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>与…一致</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>correspond to sth</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>与…相一致</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>get on famously</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>相处极好</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>go to church</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>做礼拜</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>apply oneself to sth</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>努力、专心致志于某事</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>stick to sth</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>坚持做某事</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>fall to sth</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>开始做某事</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Day25(9)</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>remove...from...</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>把...从...移开</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>in suspense</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>在悬念中、悬而未决</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>take no notice of...</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>不理会...</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>in turn</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>依次</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>break up</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>结束</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>make the best use of...</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>充分利用...</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>tear down</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>摧毀、拆卸</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>take possession of...</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>占有…、占领</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>none the less</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>依然</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>be content with...</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>对...感到满意</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Day26(10)</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>send for</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>派人去请</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Iure sb on</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>引诱某人</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>refer to</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>涉及、提到</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>with reluctance</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>不情愿地</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>more than enough</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>太、过于</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>talk down to sb</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>用高人一等的口气对某人说话</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>behave with sb</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>与某人相处的方式</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>go through one's mind</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>浮现在某人脑海里</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Day27(8)</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>be accustomed to doing</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>习惯做某事</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>no better than</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>几乎等于、实际上和...一样</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>fall into sth</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>开始做某事</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>care to do</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>想要做某事</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>high up</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>位居高职</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>treasure up</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>铭记、珍藏</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>make up one's mind</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>下定决心</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>look into</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>调查、了解</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Day28(8)</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>refer to</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>查阅、参考</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>make an appointment</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>约定、预约</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>look in the face</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>正视...、直视...</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>look into</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>调查、审查</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>stare sb down</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>盯得某人不敢对视</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>come to sth</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>总计为、加起来是</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>establish a reputation</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>确立声誉</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>run into sth</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>遇到（困难等）</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>get on</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>（尤指中断后）继续做某事</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>depart this life</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>离开人世、去世、亡故</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Day29(11)</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>be conscious of</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>意识到</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>close in</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>（夜幕）降临</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>settle down</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>安定下来</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>come out of sth</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>从（坏的情况中）走出</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>by degrees</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>逐渐地、渐渐地</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>do sb an injustice</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>待...不公正、冤枉</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>仅仅、只不过</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Day30(7)</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>regardless of</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>不管、不顾</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>come of age</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>到达法定年龄、成年</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>a crowd of</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>一大堆、许多的</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>mark the occasion</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>庆祝这一特别时刻</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>take care to do sth</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>特意做某事</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>at a disadvantage</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>处于劣势</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>blow one's nose</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>擤鼻子</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>set sth aside</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>暂时不考虑</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>cast about for</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>苦苦思索、拼命寻找</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Day31(9)</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>get sth out of sb</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>从某人那里探听到，劝说某人说出</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>take sb into one's confidence</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>对某人吐露真情，把某人当成心腹</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>as to</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>至于、关于</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>coming of age</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>成年、成熟</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>hold back</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>抑制</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>do good to</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>对...有好处、对...有益</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>for certain</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>肯定地、确凿地</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Day32(7)</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>no doubt</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>无疑、必定</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>all sorts of</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>各种各样的</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>press...upon...</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>把...强加于...</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>put sb at a disadvantage</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>让某人处于劣势、使某人吃亏</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>the next day but one</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>第三天</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>at any rate</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>无论如何</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>take pleasure in</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>以...为乐、喜欢...</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>be tired of</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>厌倦</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>in short</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>总之、简言之</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Day33(9)</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>take sb in</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>收留、留宿、收养</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>be at sb's command</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>听候某人的吩咐、服从某人的支配</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>be inseparable from sth</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>与某事不可分离、分不开的</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>keep out</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>不许入内、挡在外面</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>spread sth out</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>将...分散、将某物抛开（展开）</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>no sooner... than</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>— ...就...</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>attend to sb</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>关心某人、照顾某人</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>be unfaithful to</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>对...不忠</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Day34(8)</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>argument between A and B</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>A和B之间的争吵</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>speak to sb about sth</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>为某事数说某人</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>take sth (from sb)</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>夺取、控制</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>be meant to do</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>理应发生、应该</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>throw away</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>浪费、白费、错过</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>have an effect on sb</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>对某人产生作用</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>day after day</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>一天又一天</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Day35(7)</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>make out</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>勉强看清</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>hold out</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>伸出</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>respond to sth</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>做出回应</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>explain oneself</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>为自己的行为作说明（或解释）</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>in the least</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>丝毫、一点儿</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>on the contrary</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>与此相反</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>keep off</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>不接近某人</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>mend one's way of life</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>改过自新</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Day36(8)</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>直到</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>have no intention of doing sth</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>无意做某事</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>make so bold as to do sth</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>斗胆（冒昧）做某事</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>flash on sb</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>突然意识到、猛然领悟</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>a flood of</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>大量、大批（的人或事物）</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>put away</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>积攒</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>one grain of</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>—丝、一点儿</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>rise up</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>高耸</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>not that</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>并非、并不是说</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Day37(9)</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>far from</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>绝不...、远非…、一点也不…</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>by comparison</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>比较起来、相比之下</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>hold to</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>坚持</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>be responsible for</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>对...负责</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>draw near</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>临近、靠近、快到了</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>be assured of</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>确信、保证</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Day38(6)</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>ask for sb</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>要求见某人</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>bring oneself to do</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>使自己做...</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>give out</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>公布、宣布</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>take one's seat</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>就坐</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>put on trial</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>受审、经受考验</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>hold out both one's hands</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>伸出某人的双手</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>in return</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>作为回报</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Day39(7)</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>settle down to</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>开始认真对待、定下心来做</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>be chained to sth</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>受到某事的束缚</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>keep (sb) out of sth.</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>（使）坚持（避免或不卷入）</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>forget oneself</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>忘乎所以、行为（言谈）失态（不得体）</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>for good</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>永远、永久</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>by no means</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>决不、一点也不</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>win sb over</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>说服某人、把某人争取过来</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>take a room</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>定一个房间、租一个房间</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Day40(8)</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>have no hope of</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>对...毫无希望</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>be unknown to sb</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>不为某人所知的</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>be responsible for</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>应对...承担责任、对（尤指坏事）负责任</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>on behalf of</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>代表</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>on sb's account</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>为了某人的缘故</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>in safety</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>安全地</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>at length</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>最后、终于</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Day41(7)</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>burst in</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>闯进</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>beg one's pardon</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>请人原谅、向人道歉</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>put up</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>收起</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>on the spot</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>立即、马上</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>work to do sth.</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>争取做某事</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>link one's arm</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>挽住某人的格膊</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>to and fro</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>往返地、来回地</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>see sth out</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>坚持到某事结束</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>present oneself at</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>出现、到场</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>set off</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>出发、动身</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Day42(10)</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>take up</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>打断</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>be that as it may</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>就算这样</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>lead sb on</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>使误信、误导某人</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>for God's sake</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>看在上帝的份上</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>false and base</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>虚伪和卑鄙</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>do sb a service</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>帮某人的忙</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>without one's knowledge</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>在某人不知道的情况下</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>hold back from doing sth</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>抑制住做某事</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>in answer to</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>回应</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Day43(9)</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>for one's sake</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>为了...缘故、看在...份上</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>put aside</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>放在一边</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>blame...for...</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>因为...而责备...</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>in despair</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>绝望地</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>get sb out of one's thoughts</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>忘记某人</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>associate .. .with</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>把...和...联系起来</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Strike off</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>前进、出发</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>tire out</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>使疲惫</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Day44(8)</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>make the best of one's way</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>前往</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>except for</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>除了</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>that is to say</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>那就是说、换言之</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>hear of</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>听说</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>throw oneself into</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>投身于</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>concern oneself about</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>担心</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>be otherwise engaged</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>另外有约、另外有事</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>see for oneself</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>亲自去看</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>impress sth upon sb</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>强调</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>get hold of</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Day45(10)</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>select sth from sth</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>从...中选择、从...挑选</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>lie low</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>躲藏、不露面</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>be in the habit of doing sth</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>有做某事的习惯</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>bring sth round</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>把...带过来</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>suspect sb of doing sth</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>怀疑某人做某事</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>at an end</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>结束</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>rely on</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>依赖</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Day46(7)</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>in short</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>简而言之、总之</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>press sb for sth</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>极力劝说、催促某人某物</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>hold on to</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>守住、保住</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>under one's breath</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>低声地、小声地</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>catch my attention</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>吸引我的注意</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Day47(5)</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>rest on sth</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>（目光）落在...上</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>pull sth back</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>拉回、缩回</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>break off</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>停顿、中断</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>at rest</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>安心</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>a degree of...</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>程度的...</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>be on friendly terms with sb</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>与某人关系友好</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Day48(6)</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>drop on one's knees</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>跪下</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>press one's hand</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>紧握某人的手</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>in the hope that</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>抱着...的希望</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>bend over</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>俯身</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>cut sb off from sth</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>使...与外界隔绝</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>look upon sb</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>（以某种方式）看（对）待某人</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>promise to be</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>预计会、预示会</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>send for sb</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>请某人来帮忙</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>《Great Expectations远大前程（狄更斯）》</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
           <t>lay sth waste</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B434" t="inlineStr">
         <is>
           <t>完全摧毁、使荒芜</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Day49</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Day49(9)</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
         <is>
           <t>《Great Expectations远大前程（狄更斯）》</t>
         </is>
